--- a/simulacion_GOOGL.xlsx
+++ b/simulacion_GOOGL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>177.8999938964844</v>
+      </c>
+      <c r="C2" t="n">
         <v>178.6100006103516</v>
       </c>
-      <c r="C2" t="n">
-        <v>506.2793744638989</v>
-      </c>
       <c r="D2" t="n">
-        <v>505.7410363124721</v>
+        <v>179.3526924069895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>176.9900054931641</v>
+      </c>
+      <c r="C3" t="n">
         <v>177.8999938964844</v>
       </c>
-      <c r="C3" t="n">
-        <v>179.661607194596</v>
-      </c>
       <c r="D3" t="n">
-        <v>181.7553572144092</v>
+        <v>176.8972653981791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>177.2599945068359</v>
+      </c>
+      <c r="C4" t="n">
         <v>176.9900054931641</v>
       </c>
-      <c r="C4" t="n">
-        <v>177.1874423591694</v>
-      </c>
       <c r="D4" t="n">
-        <v>178.9792469670936</v>
+        <v>178.5697782570394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>176.2402038574219</v>
+      </c>
+      <c r="C5" t="n">
         <v>177.2599945068359</v>
       </c>
-      <c r="C5" t="n">
-        <v>176.7103503417597</v>
-      </c>
       <c r="D5" t="n">
-        <v>183.300811822471</v>
+        <v>171.2251535048899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>176.3600006103516</v>
+      </c>
+      <c r="C6" t="n">
         <v>176.2402038574219</v>
       </c>
-      <c r="C6" t="n">
-        <v>179.5888383244812</v>
-      </c>
       <c r="D6" t="n">
-        <v>179.5212045626057</v>
+        <v>174.6327813459045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>176.6950073242188</v>
+      </c>
+      <c r="C7" t="n">
         <v>176.3600006103516</v>
       </c>
-      <c r="C7" t="n">
-        <v>174.8227056349242</v>
-      </c>
       <c r="D7" t="n">
-        <v>172.3430380099602</v>
+        <v>179.5519495055568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>175.1450042724609</v>
+      </c>
+      <c r="C8" t="n">
         <v>176.6950073242188</v>
       </c>
-      <c r="C8" t="n">
-        <v>177.1197404115221</v>
-      </c>
       <c r="D8" t="n">
-        <v>174.8210355751667</v>
+        <v>174.04584883232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>176.3600006103516</v>
+      </c>
+      <c r="C9" t="n">
         <v>175.1450042724609</v>
       </c>
-      <c r="C9" t="n">
-        <v>175.7494997446701</v>
-      </c>
       <c r="D9" t="n">
-        <v>173.0573671587817</v>
+        <v>176.4885549589004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>176.6900024414062</v>
+      </c>
+      <c r="C10" t="n">
         <v>176.3600006103516</v>
       </c>
-      <c r="C10" t="n">
-        <v>178.2945330734004</v>
-      </c>
       <c r="D10" t="n">
-        <v>179.1885181052281</v>
+        <v>173.6811491612555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>178.1699981689453</v>
+      </c>
+      <c r="C11" t="n">
         <v>176.6900024414062</v>
       </c>
-      <c r="C11" t="n">
-        <v>180.9729738504439</v>
-      </c>
       <c r="D11" t="n">
-        <v>180.6298410406997</v>
+        <v>181.315162199714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>177.6100006103516</v>
+      </c>
+      <c r="C12" t="n">
         <v>178.1699981689453</v>
       </c>
-      <c r="C12" t="n">
-        <v>175.8717346683276</v>
-      </c>
       <c r="D12" t="n">
-        <v>177.5329724842971</v>
+        <v>178.2389175065274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>177.7550048828125</v>
+      </c>
+      <c r="C13" t="n">
         <v>177.6100006103516</v>
       </c>
-      <c r="C13" t="n">
-        <v>179.9020474383155</v>
-      </c>
       <c r="D13" t="n">
-        <v>175.6400478612616</v>
+        <v>171.1045348304796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>177.6300048828125</v>
+      </c>
+      <c r="C14" t="n">
         <v>177.7550048828125</v>
       </c>
-      <c r="C14" t="n">
-        <v>180.1035529582039</v>
-      </c>
       <c r="D14" t="n">
-        <v>176.9210545300999</v>
+        <v>178.3230340464171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>177.4450073242188</v>
+      </c>
+      <c r="C15" t="n">
         <v>177.6300048828125</v>
       </c>
-      <c r="C15" t="n">
-        <v>177.223339595499</v>
-      </c>
       <c r="D15" t="n">
-        <v>178.2266383192182</v>
+        <v>176.7421679609769</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>178.9299926757812</v>
+      </c>
+      <c r="C16" t="n">
         <v>177.4450073242188</v>
       </c>
-      <c r="C16" t="n">
-        <v>178.3190168302446</v>
-      </c>
       <c r="D16" t="n">
-        <v>182.7952620314445</v>
+        <v>179.8917726639792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>180.0200042724609</v>
+      </c>
+      <c r="C17" t="n">
         <v>178.9299926757812</v>
       </c>
-      <c r="C17" t="n">
-        <v>176.1919290335622</v>
-      </c>
       <c r="D17" t="n">
-        <v>174.3059226774556</v>
+        <v>182.9897250093313</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>180.5249938964844</v>
+      </c>
+      <c r="C18" t="n">
         <v>180.0200042724609</v>
       </c>
-      <c r="C18" t="n">
-        <v>175.3673098807355</v>
-      </c>
       <c r="D18" t="n">
-        <v>175.1008691473331</v>
+        <v>180.6756198382009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>180.8677978515625</v>
+      </c>
+      <c r="C19" t="n">
         <v>180.5249938964844</v>
       </c>
-      <c r="C19" t="n">
-        <v>176.7414835674904</v>
-      </c>
       <c r="D19" t="n">
-        <v>182.3288476007035</v>
+        <v>185.8538046365441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>180.3863067626953</v>
+      </c>
+      <c r="C20" t="n">
         <v>180.8677978515625</v>
       </c>
-      <c r="C20" t="n">
-        <v>180.8756793746898</v>
-      </c>
       <c r="D20" t="n">
-        <v>182.283868824385</v>
+        <v>182.1206646512873</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>180.1549987792969</v>
+      </c>
+      <c r="C21" t="n">
         <v>180.3863067626953</v>
       </c>
-      <c r="C21" t="n">
-        <v>178.0854715185126</v>
-      </c>
       <c r="D21" t="n">
-        <v>180.2756622773537</v>
+        <v>179.3643860467064</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>180.1699981689453</v>
+      </c>
+      <c r="C22" t="n">
         <v>180.1549987792969</v>
       </c>
-      <c r="C22" t="n">
-        <v>182.4216673932944</v>
-      </c>
       <c r="D22" t="n">
-        <v>183.4471423367892</v>
+        <v>179.8528634332398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>180.8200073242188</v>
+      </c>
+      <c r="C23" t="n">
         <v>180.1699981689453</v>
       </c>
-      <c r="C23" t="n">
-        <v>178.4442473432402</v>
-      </c>
       <c r="D23" t="n">
-        <v>184.2056332569192</v>
+        <v>177.3482264237282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>180.5850067138672</v>
+      </c>
+      <c r="C24" t="n">
         <v>180.8200073242188</v>
       </c>
-      <c r="C24" t="n">
-        <v>177.3946897434964</v>
-      </c>
       <c r="D24" t="n">
-        <v>173.2876301836367</v>
+        <v>183.0518243679209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>181.1450042724609</v>
+      </c>
+      <c r="C25" t="n">
         <v>180.5850067138672</v>
       </c>
-      <c r="C25" t="n">
-        <v>184.6290586519673</v>
-      </c>
       <c r="D25" t="n">
-        <v>181.9049026579708</v>
+        <v>183.8709577186391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>181.7299957275391</v>
+      </c>
+      <c r="C26" t="n">
         <v>181.1450042724609</v>
       </c>
-      <c r="C26" t="n">
-        <v>181.5236363879961</v>
-      </c>
       <c r="D26" t="n">
-        <v>179.6639320694361</v>
+        <v>182.333251961726</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>181.4799957275391</v>
+      </c>
+      <c r="C27" t="n">
         <v>181.7299957275391</v>
       </c>
-      <c r="C27" t="n">
-        <v>177.2868839021623</v>
-      </c>
       <c r="D27" t="n">
-        <v>183.4541476133533</v>
+        <v>183.8544686652598</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>181.6000061035156</v>
+      </c>
+      <c r="C28" t="n">
         <v>181.4799957275391</v>
       </c>
-      <c r="C28" t="n">
-        <v>180.8482133681529</v>
-      </c>
       <c r="D28" t="n">
-        <v>187.5407598389217</v>
+        <v>182.1304979635362</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>182.5303955078125</v>
+      </c>
+      <c r="C29" t="n">
         <v>181.6000061035156</v>
       </c>
-      <c r="C29" t="n">
-        <v>181.3792144489746</v>
-      </c>
       <c r="D29" t="n">
-        <v>181.2307150593503</v>
+        <v>181.7619660249487</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>183.9299926757812</v>
+      </c>
+      <c r="C30" t="n">
         <v>182.5303955078125</v>
       </c>
-      <c r="C30" t="n">
-        <v>183.3048289412544</v>
-      </c>
       <c r="D30" t="n">
-        <v>173.8350168317864</v>
+        <v>179.6800189838082</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>183.2350006103516</v>
+      </c>
+      <c r="C31" t="n">
         <v>183.9299926757812</v>
       </c>
-      <c r="C31" t="n">
-        <v>183.6429130300191</v>
-      </c>
       <c r="D31" t="n">
-        <v>184.5571843135324</v>
+        <v>185.5802657085917</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>183.4100036621094</v>
+      </c>
+      <c r="C32" t="n">
         <v>183.2350006103516</v>
       </c>
-      <c r="C32" t="n">
-        <v>182.1521967535745</v>
-      </c>
       <c r="D32" t="n">
-        <v>179.7303072793004</v>
+        <v>181.2277374065133</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>183.9149932861328</v>
+      </c>
+      <c r="C33" t="n">
         <v>183.4100036621094</v>
       </c>
-      <c r="C33" t="n">
-        <v>186.7185217640627</v>
-      </c>
       <c r="D33" t="n">
-        <v>185.6078427326985</v>
+        <v>179.3471344066051</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>183.2100067138672</v>
+      </c>
+      <c r="C34" t="n">
         <v>183.9149932861328</v>
       </c>
-      <c r="C34" t="n">
-        <v>186.5553064072623</v>
-      </c>
       <c r="D34" t="n">
-        <v>185.5036365974101</v>
+        <v>188.8395410456848</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>181.9600067138672</v>
+      </c>
+      <c r="C35" t="n">
         <v>183.2100067138672</v>
       </c>
-      <c r="C35" t="n">
-        <v>185.5750534449423</v>
-      </c>
       <c r="D35" t="n">
-        <v>188.5446006541484</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>181.9600067138672</v>
-      </c>
-      <c r="C36" t="n">
-        <v>179.6583165431072</v>
-      </c>
-      <c r="D36" t="n">
-        <v>178.6095476092697</v>
+        <v>180.9906202541765</v>
       </c>
     </row>
   </sheetData>
